--- a/signs/2024.xlsx
+++ b/signs/2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Purchasing\1 Completed BIDS, Quotes, RFP\a Completed Bids\2023 Bids\Prefabricated Signs\TABS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://rcoc-my.sharepoint.com/personal/abates_rcoc_org/Documents/Documents/GitHub/bidAnalysis/signs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A911211-87C7-4CE7-826C-62863D1B67EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{8A911211-87C7-4CE7-826C-62863D1B67EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7DE18C72-F255-43A2-87E1-2F2E46532642}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Price Analysis" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3651" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3652" uniqueCount="488">
   <si>
     <t>Lightle Enterprises of Ohio, LLC</t>
   </si>
@@ -1899,6 +1899,9 @@
   </si>
   <si>
     <t>none</t>
+  </si>
+  <si>
+    <t>Item Number</t>
   </si>
 </sst>
 </file>
@@ -2214,13 +2217,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="8" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2229,34 +2226,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="8" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2276,6 +2246,39 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2598,7 +2601,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="X14" sqref="X14"/>
     </sheetView>
@@ -2651,364 +2654,364 @@
       </c>
     </row>
     <row r="5" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="35" t="s">
         <v>455</v>
       </c>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="19" t="s">
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="35" t="s">
         <v>467</v>
       </c>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
-      <c r="K5" s="20"/>
-      <c r="L5" s="19" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="K5" s="36"/>
+      <c r="L5" s="35" t="s">
         <v>472</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="19" t="s">
+      <c r="M5" s="36"/>
+      <c r="N5" s="36"/>
+      <c r="O5" s="36"/>
+      <c r="P5" s="35" t="s">
         <v>476</v>
       </c>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="30" t="s">
+      <c r="Q5" s="36"/>
+      <c r="R5" s="36"/>
+      <c r="S5" s="36"/>
+      <c r="T5" s="37" t="s">
         <v>479</v>
       </c>
-      <c r="U5" s="31"/>
-      <c r="V5" s="31"/>
-      <c r="W5" s="31"/>
-      <c r="X5" s="19" t="s">
+      <c r="U5" s="38"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="38"/>
+      <c r="X5" s="35" t="s">
         <v>483</v>
       </c>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
+      <c r="Y5" s="36"/>
+      <c r="Z5" s="36"/>
+      <c r="AA5" s="36"/>
     </row>
     <row r="6" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="26" t="s">
         <v>456</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="24" t="s">
+      <c r="B6" s="26"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="24" t="s">
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="24" t="s">
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="24" t="s">
+      <c r="M6" s="20"/>
+      <c r="N6" s="20"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="24" t="s">
+      <c r="Q6" s="20"/>
+      <c r="R6" s="20"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="U6" s="22"/>
-      <c r="V6" s="22"/>
-      <c r="W6" s="23"/>
-      <c r="X6" s="24" t="s">
+      <c r="U6" s="20"/>
+      <c r="V6" s="20"/>
+      <c r="W6" s="21"/>
+      <c r="X6" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="23"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="21"/>
     </row>
     <row r="7" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="26" t="s">
         <v>457</v>
       </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="24"/>
-      <c r="U7" s="22"/>
-      <c r="V7" s="22"/>
-      <c r="W7" s="23"/>
-      <c r="X7" s="24" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="19"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="19"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="20"/>
+      <c r="O7" s="21"/>
+      <c r="P7" s="19"/>
+      <c r="Q7" s="20"/>
+      <c r="R7" s="20"/>
+      <c r="S7" s="21"/>
+      <c r="T7" s="19"/>
+      <c r="U7" s="20"/>
+      <c r="V7" s="20"/>
+      <c r="W7" s="21"/>
+      <c r="X7" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="23"/>
+      <c r="Y7" s="20"/>
+      <c r="Z7" s="20"/>
+      <c r="AA7" s="21"/>
     </row>
     <row r="8" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="26" t="s">
         <v>458</v>
       </c>
-      <c r="B8" s="37"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="24" t="s">
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="24" t="s">
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="24" t="s">
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="21"/>
+      <c r="L8" s="19" t="s">
         <v>473</v>
       </c>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="24" t="s">
+      <c r="M8" s="20"/>
+      <c r="N8" s="20"/>
+      <c r="O8" s="21"/>
+      <c r="P8" s="19" t="s">
         <v>459</v>
       </c>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="24" t="s">
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="19" t="s">
         <v>480</v>
       </c>
-      <c r="U8" s="22"/>
-      <c r="V8" s="22"/>
-      <c r="W8" s="23"/>
-      <c r="X8" s="33">
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="21"/>
+      <c r="X8" s="39">
         <v>45657</v>
       </c>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="23"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="21"/>
     </row>
     <row r="9" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="26" t="s">
         <v>460</v>
       </c>
-      <c r="B9" s="37"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="24" t="s">
+      <c r="B9" s="26"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="19" t="s">
         <v>461</v>
       </c>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="24" t="s">
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="19" t="s">
         <v>469</v>
       </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="21">
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="20"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="22">
         <v>25</v>
       </c>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="21">
+      <c r="Q9" s="20"/>
+      <c r="R9" s="20"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="22">
         <v>5000</v>
       </c>
-      <c r="U9" s="22"/>
-      <c r="V9" s="22"/>
-      <c r="W9" s="23"/>
-      <c r="X9" s="21">
+      <c r="U9" s="20"/>
+      <c r="V9" s="20"/>
+      <c r="W9" s="21"/>
+      <c r="X9" s="22">
         <v>1000</v>
       </c>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="23"/>
+      <c r="Y9" s="20"/>
+      <c r="Z9" s="20"/>
+      <c r="AA9" s="21"/>
     </row>
     <row r="10" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="28" t="s">
         <v>462</v>
       </c>
-      <c r="B10" s="37"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="24">
-        <v>30</v>
-      </c>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="24" t="s">
+      <c r="B10" s="26"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="19">
+        <v>30</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="19" t="s">
         <v>468</v>
       </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="24" t="s">
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="19" t="s">
         <v>474</v>
       </c>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="24" t="s">
+      <c r="M10" s="20"/>
+      <c r="N10" s="20"/>
+      <c r="O10" s="21"/>
+      <c r="P10" s="19" t="s">
         <v>477</v>
       </c>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="24" t="s">
+      <c r="Q10" s="20"/>
+      <c r="R10" s="20"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="19" t="s">
         <v>481</v>
       </c>
-      <c r="U10" s="22"/>
-      <c r="V10" s="22"/>
-      <c r="W10" s="23"/>
-      <c r="X10" s="24" t="s">
+      <c r="U10" s="20"/>
+      <c r="V10" s="20"/>
+      <c r="W10" s="21"/>
+      <c r="X10" s="19" t="s">
         <v>484</v>
       </c>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="23"/>
+      <c r="Y10" s="20"/>
+      <c r="Z10" s="20"/>
+      <c r="AA10" s="21"/>
     </row>
     <row r="11" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="23" t="s">
         <v>463</v>
       </c>
-      <c r="B11" s="35"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="24" t="s">
+      <c r="B11" s="24"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="19" t="s">
         <v>464</v>
       </c>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="24" t="s">
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="19" t="s">
         <v>470</v>
       </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="24" t="s">
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="19" t="s">
         <v>475</v>
       </c>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="24" t="s">
+      <c r="M11" s="20"/>
+      <c r="N11" s="20"/>
+      <c r="O11" s="21"/>
+      <c r="P11" s="19" t="s">
         <v>478</v>
       </c>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="32" t="s">
+      <c r="Q11" s="20"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="34" t="s">
         <v>482</v>
       </c>
-      <c r="U11" s="22"/>
-      <c r="V11" s="22"/>
-      <c r="W11" s="23"/>
-      <c r="X11" s="24" t="s">
+      <c r="U11" s="20"/>
+      <c r="V11" s="20"/>
+      <c r="W11" s="21"/>
+      <c r="X11" s="19" t="s">
         <v>485</v>
       </c>
-      <c r="Y11" s="22"/>
-      <c r="Z11" s="22"/>
-      <c r="AA11" s="23"/>
+      <c r="Y11" s="20"/>
+      <c r="Z11" s="20"/>
+      <c r="AA11" s="21"/>
     </row>
     <row r="12" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="26" t="s">
         <v>465</v>
       </c>
-      <c r="B12" s="37"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="24" t="s">
+      <c r="B12" s="26"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="24" t="s">
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="19" t="s">
         <v>471</v>
       </c>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="24" t="s">
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="24" t="s">
+      <c r="M12" s="20"/>
+      <c r="N12" s="20"/>
+      <c r="O12" s="21"/>
+      <c r="P12" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="24" t="s">
+      <c r="Q12" s="20"/>
+      <c r="R12" s="20"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="U12" s="22"/>
-      <c r="V12" s="22"/>
-      <c r="W12" s="23"/>
-      <c r="X12" s="24" t="s">
+      <c r="U12" s="20"/>
+      <c r="V12" s="20"/>
+      <c r="W12" s="21"/>
+      <c r="X12" s="19" t="s">
         <v>371</v>
       </c>
-      <c r="Y12" s="22"/>
-      <c r="Z12" s="22"/>
-      <c r="AA12" s="23"/>
+      <c r="Y12" s="20"/>
+      <c r="Z12" s="20"/>
+      <c r="AA12" s="21"/>
     </row>
     <row r="13" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="26" t="s">
         <v>466</v>
       </c>
-      <c r="B13" s="37"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="24"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="24"/>
-      <c r="U13" s="22"/>
-      <c r="V13" s="22"/>
-      <c r="W13" s="23"/>
-      <c r="X13" s="24" t="s">
+      <c r="B13" s="26"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="19"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="21"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="19"/>
+      <c r="M13" s="20"/>
+      <c r="N13" s="20"/>
+      <c r="O13" s="21"/>
+      <c r="P13" s="19"/>
+      <c r="Q13" s="20"/>
+      <c r="R13" s="20"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="19"/>
+      <c r="U13" s="20"/>
+      <c r="V13" s="20"/>
+      <c r="W13" s="21"/>
+      <c r="X13" s="19" t="s">
         <v>486</v>
       </c>
-      <c r="Y13" s="22"/>
-      <c r="Z13" s="22"/>
-      <c r="AA13" s="23"/>
+      <c r="Y13" s="20"/>
+      <c r="Z13" s="20"/>
+      <c r="AA13" s="21"/>
     </row>
     <row r="14" spans="1:27" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
@@ -9177,74 +9180,79 @@
       </c>
     </row>
     <row r="94" spans="1:27" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="27" t="s">
+      <c r="A94" s="31" t="s">
         <v>374</v>
       </c>
-      <c r="B94" s="28"/>
-      <c r="C94" s="29"/>
+      <c r="B94" s="32"/>
+      <c r="C94" s="33"/>
       <c r="D94" s="17"/>
       <c r="E94" s="17"/>
-      <c r="F94" s="25">
+      <c r="F94" s="29">
         <v>76443.350000000006</v>
       </c>
-      <c r="G94" s="26"/>
+      <c r="G94" s="30"/>
       <c r="H94" s="17"/>
       <c r="I94" s="18"/>
-      <c r="J94" s="25">
+      <c r="J94" s="29">
         <v>80080.5</v>
       </c>
-      <c r="K94" s="26"/>
+      <c r="K94" s="30"/>
       <c r="L94" s="17"/>
       <c r="M94" s="18"/>
-      <c r="N94" s="25">
+      <c r="N94" s="29">
         <v>81207.350000000006</v>
       </c>
-      <c r="O94" s="26"/>
+      <c r="O94" s="30"/>
       <c r="P94" s="17"/>
       <c r="Q94" s="18"/>
-      <c r="R94" s="25">
+      <c r="R94" s="29">
         <v>94320.9</v>
       </c>
-      <c r="S94" s="26"/>
+      <c r="S94" s="30"/>
       <c r="T94" s="17"/>
       <c r="U94" s="18"/>
-      <c r="V94" s="25">
+      <c r="V94" s="29">
         <v>98630.6</v>
       </c>
-      <c r="W94" s="26"/>
+      <c r="W94" s="30"/>
       <c r="X94" s="17"/>
       <c r="Y94" s="17"/>
-      <c r="Z94" s="25">
+      <c r="Z94" s="29">
         <v>112603.7</v>
       </c>
-      <c r="AA94" s="26"/>
+      <c r="AA94" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="69">
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="P6:S6"/>
-    <mergeCell ref="P7:S7"/>
-    <mergeCell ref="P8:S8"/>
-    <mergeCell ref="P9:S9"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="L8:O8"/>
-    <mergeCell ref="L9:O9"/>
-    <mergeCell ref="P10:S10"/>
-    <mergeCell ref="P11:S11"/>
-    <mergeCell ref="P12:S12"/>
-    <mergeCell ref="P13:S13"/>
-    <mergeCell ref="H11:K11"/>
-    <mergeCell ref="H12:K12"/>
-    <mergeCell ref="H13:K13"/>
-    <mergeCell ref="L10:O10"/>
-    <mergeCell ref="L11:O11"/>
-    <mergeCell ref="L12:O12"/>
-    <mergeCell ref="L13:O13"/>
-    <mergeCell ref="H6:K6"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="H8:K8"/>
-    <mergeCell ref="H9:K9"/>
-    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="L5:O5"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="X9:AA9"/>
+    <mergeCell ref="X10:AA10"/>
+    <mergeCell ref="X5:AA5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="P5:S5"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="X6:AA6"/>
+    <mergeCell ref="X7:AA7"/>
+    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="X11:AA11"/>
+    <mergeCell ref="X12:AA12"/>
+    <mergeCell ref="X13:AA13"/>
+    <mergeCell ref="R94:S94"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="A94:C94"/>
+    <mergeCell ref="V94:W94"/>
+    <mergeCell ref="Z94:AA94"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A12:C12"/>
     <mergeCell ref="A13:C13"/>
@@ -9261,35 +9269,30 @@
     <mergeCell ref="A8:C8"/>
     <mergeCell ref="A9:C9"/>
     <mergeCell ref="A10:C10"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="A94:C94"/>
-    <mergeCell ref="V94:W94"/>
-    <mergeCell ref="Z94:AA94"/>
-    <mergeCell ref="X11:AA11"/>
-    <mergeCell ref="X12:AA12"/>
-    <mergeCell ref="X13:AA13"/>
-    <mergeCell ref="R94:S94"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="T11:W11"/>
-    <mergeCell ref="T12:W12"/>
-    <mergeCell ref="T13:W13"/>
-    <mergeCell ref="L5:O5"/>
-    <mergeCell ref="H5:K5"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="X9:AA9"/>
-    <mergeCell ref="X10:AA10"/>
-    <mergeCell ref="X5:AA5"/>
-    <mergeCell ref="T5:W5"/>
-    <mergeCell ref="P5:S5"/>
-    <mergeCell ref="T6:W6"/>
-    <mergeCell ref="T7:W7"/>
-    <mergeCell ref="T8:W8"/>
-    <mergeCell ref="T9:W9"/>
-    <mergeCell ref="T10:W10"/>
-    <mergeCell ref="X6:AA6"/>
-    <mergeCell ref="X7:AA7"/>
-    <mergeCell ref="X8:AA8"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="P10:S10"/>
+    <mergeCell ref="P11:S11"/>
+    <mergeCell ref="P12:S12"/>
+    <mergeCell ref="P13:S13"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="L10:O10"/>
+    <mergeCell ref="L11:O11"/>
+    <mergeCell ref="L12:O12"/>
+    <mergeCell ref="L13:O13"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="P6:S6"/>
+    <mergeCell ref="P7:S7"/>
+    <mergeCell ref="P8:S8"/>
+    <mergeCell ref="P9:S9"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="L8:O8"/>
+    <mergeCell ref="L9:O9"/>
   </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
   <pageSetup paperSize="3" scale="70" orientation="landscape" r:id="rId1"/>
@@ -9305,1163 +9308,1405 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:K80"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A80"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="37.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="37.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>361</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>362</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>363</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>364</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>365</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C2" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" t="s">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" t="s">
         <v>19</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>21</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I3" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3" t="s">
         <v>32</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>21</v>
       </c>
-      <c r="K3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" t="s">
         <v>36</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>21</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="I5" t="s">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" t="s">
         <v>41</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>21</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>50</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="I6" t="s">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" t="s">
         <v>46</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>21</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>100</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="I7" t="s">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" t="s">
         <v>50</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>21</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C8" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" t="s">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" t="s">
         <v>55</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>21</v>
       </c>
-      <c r="K8">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L8">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>20</v>
+      </c>
+      <c r="J9" t="s">
         <v>60</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>21</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C10" t="s">
-        <v>20</v>
-      </c>
-      <c r="I10" t="s">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J10" t="s">
         <v>65</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>21</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>50</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C11" t="s">
-        <v>20</v>
-      </c>
-      <c r="I11" t="s">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" t="s">
         <v>70</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>21</v>
       </c>
-      <c r="K11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C12" t="s">
-        <v>20</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="L11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
         <v>74</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>21</v>
       </c>
-      <c r="K12">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C13" t="s">
-        <v>20</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="L12">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="J13" t="s">
         <v>78</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>21</v>
       </c>
-      <c r="K13">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="L13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J14" t="s">
         <v>82</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>21</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>225</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="J15" t="s">
         <v>86</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>21</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C16" t="s">
-        <v>20</v>
-      </c>
-      <c r="I16" t="s">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="J16" t="s">
         <v>91</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>21</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C17" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="J17" t="s">
         <v>95</v>
       </c>
-      <c r="J17" t="s">
+      <c r="K17" t="s">
         <v>21</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>70</v>
       </c>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I18" t="s">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
+      </c>
+      <c r="J18" t="s">
         <v>99</v>
       </c>
-      <c r="J18" t="s">
+      <c r="K18" t="s">
         <v>21</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C19" t="s">
-        <v>20</v>
-      </c>
-      <c r="I19" t="s">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J19" t="s">
         <v>103</v>
       </c>
-      <c r="J19" t="s">
+      <c r="K19" t="s">
         <v>21</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>60</v>
       </c>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I20" t="s">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="J20" t="s">
         <v>107</v>
       </c>
-      <c r="J20" t="s">
+      <c r="K20" t="s">
         <v>21</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C21" t="s">
-        <v>20</v>
-      </c>
-      <c r="I21" t="s">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J21" t="s">
         <v>111</v>
       </c>
-      <c r="J21" t="s">
+      <c r="K21" t="s">
         <v>21</v>
       </c>
-      <c r="K21">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C22" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="L21">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="J22" t="s">
         <v>114</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>21</v>
       </c>
-      <c r="K22">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C23" t="s">
-        <v>20</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="L22">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>20</v>
+      </c>
+      <c r="J23" t="s">
         <v>117</v>
       </c>
-      <c r="J23" t="s">
+      <c r="K23" t="s">
         <v>21</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>100</v>
       </c>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C24" t="s">
-        <v>20</v>
-      </c>
-      <c r="I24" t="s">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>20</v>
+      </c>
+      <c r="J24" t="s">
         <v>120</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>21</v>
       </c>
-      <c r="K24">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C25" t="s">
-        <v>20</v>
-      </c>
-      <c r="I25" t="s">
+      <c r="L24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="J25" t="s">
         <v>123</v>
       </c>
-      <c r="J25" t="s">
+      <c r="K25" t="s">
         <v>21</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>20</v>
-      </c>
-      <c r="I26" t="s">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="J26" t="s">
         <v>127</v>
       </c>
-      <c r="J26" t="s">
+      <c r="K26" t="s">
         <v>21</v>
       </c>
-      <c r="K26">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C27" t="s">
-        <v>20</v>
-      </c>
-      <c r="I27" t="s">
+      <c r="L26">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>20</v>
+      </c>
+      <c r="J27" t="s">
         <v>132</v>
       </c>
-      <c r="J27" t="s">
+      <c r="K27" t="s">
         <v>21</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>50</v>
       </c>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C28" t="s">
-        <v>20</v>
-      </c>
-      <c r="I28" t="s">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>20</v>
+      </c>
+      <c r="J28" t="s">
         <v>136</v>
       </c>
-      <c r="J28" t="s">
+      <c r="K28" t="s">
         <v>21</v>
       </c>
-      <c r="K28">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>20</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="L28">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="D29" t="s">
+        <v>20</v>
+      </c>
+      <c r="J29" t="s">
         <v>141</v>
       </c>
-      <c r="J29" t="s">
+      <c r="K29" t="s">
         <v>21</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>60</v>
       </c>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C30" t="s">
-        <v>20</v>
-      </c>
-      <c r="I30" t="s">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="J30" t="s">
         <v>146</v>
       </c>
-      <c r="J30" t="s">
+      <c r="K30" t="s">
         <v>21</v>
       </c>
-      <c r="K30">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C31" t="s">
-        <v>20</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="L30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="D31" t="s">
+        <v>20</v>
+      </c>
+      <c r="J31" t="s">
         <v>150</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>21</v>
       </c>
-      <c r="K31">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>20</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="L31">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="J32" t="s">
         <v>154</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>21</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C33" t="s">
-        <v>20</v>
-      </c>
-      <c r="I33" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
+      </c>
+      <c r="J33" t="s">
         <v>158</v>
       </c>
-      <c r="J33" t="s">
+      <c r="K33" t="s">
         <v>21</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C34" t="s">
-        <v>20</v>
-      </c>
-      <c r="I34" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="D34" t="s">
+        <v>20</v>
+      </c>
+      <c r="J34" t="s">
         <v>162</v>
       </c>
-      <c r="J34" t="s">
+      <c r="K34" t="s">
         <v>21</v>
       </c>
-      <c r="K34">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>20</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="L34">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="D35" t="s">
+        <v>20</v>
+      </c>
+      <c r="J35" t="s">
         <v>166</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>21</v>
       </c>
-      <c r="K35">
+      <c r="L35">
         <v>60</v>
       </c>
     </row>
-    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C36" t="s">
-        <v>20</v>
-      </c>
-      <c r="I36" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="D36" t="s">
+        <v>20</v>
+      </c>
+      <c r="J36" t="s">
         <v>170</v>
       </c>
-      <c r="J36" t="s">
+      <c r="K36" t="s">
         <v>21</v>
       </c>
-      <c r="K36">
+      <c r="L36">
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C37" t="s">
-        <v>20</v>
-      </c>
-      <c r="I37" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="D37" t="s">
+        <v>20</v>
+      </c>
+      <c r="J37" t="s">
         <v>174</v>
       </c>
-      <c r="J37" t="s">
+      <c r="K37" t="s">
         <v>21</v>
       </c>
-      <c r="K37">
+      <c r="L37">
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C38" t="s">
-        <v>20</v>
-      </c>
-      <c r="I38" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
+        <v>20</v>
+      </c>
+      <c r="J38" t="s">
         <v>178</v>
       </c>
-      <c r="J38" t="s">
+      <c r="K38" t="s">
         <v>21</v>
       </c>
-      <c r="K38">
+      <c r="L38">
         <v>350</v>
       </c>
     </row>
-    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C39" t="s">
-        <v>20</v>
-      </c>
-      <c r="I39" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>20</v>
+      </c>
+      <c r="J39" t="s">
         <v>183</v>
       </c>
-      <c r="J39" t="s">
+      <c r="K39" t="s">
         <v>21</v>
       </c>
-      <c r="K39">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C40" t="s">
-        <v>20</v>
-      </c>
-      <c r="I40" t="s">
+      <c r="L39">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>20</v>
+      </c>
+      <c r="J40" t="s">
         <v>188</v>
       </c>
-      <c r="J40" t="s">
+      <c r="K40" t="s">
         <v>21</v>
       </c>
-      <c r="K40">
+      <c r="L40">
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C41" t="s">
-        <v>20</v>
-      </c>
-      <c r="I41" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>20</v>
+      </c>
+      <c r="J41" t="s">
         <v>192</v>
       </c>
-      <c r="J41" t="s">
+      <c r="K41" t="s">
         <v>21</v>
       </c>
-      <c r="K41">
+      <c r="L41">
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C42" t="s">
-        <v>20</v>
-      </c>
-      <c r="I42" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>20</v>
+      </c>
+      <c r="J42" t="s">
         <v>197</v>
       </c>
-      <c r="J42" t="s">
+      <c r="K42" t="s">
         <v>21</v>
       </c>
-      <c r="K42">
+      <c r="L42">
         <v>80</v>
       </c>
     </row>
-    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C43" t="s">
-        <v>20</v>
-      </c>
-      <c r="I43" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="D43" t="s">
+        <v>20</v>
+      </c>
+      <c r="J43" t="s">
         <v>202</v>
       </c>
-      <c r="J43" t="s">
+      <c r="K43" t="s">
         <v>21</v>
       </c>
-      <c r="K43">
+      <c r="L43">
         <v>15</v>
       </c>
     </row>
-    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C44" t="s">
-        <v>20</v>
-      </c>
-      <c r="I44" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="D44" t="s">
+        <v>20</v>
+      </c>
+      <c r="J44" t="s">
         <v>206</v>
       </c>
-      <c r="J44" t="s">
+      <c r="K44" t="s">
         <v>21</v>
       </c>
-      <c r="K44">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C45" t="s">
-        <v>20</v>
-      </c>
-      <c r="I45" t="s">
+      <c r="L44">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="D45" t="s">
+        <v>20</v>
+      </c>
+      <c r="J45" t="s">
         <v>210</v>
       </c>
-      <c r="J45" t="s">
+      <c r="K45" t="s">
         <v>21</v>
       </c>
-      <c r="K45">
+      <c r="L45">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C46" t="s">
-        <v>20</v>
-      </c>
-      <c r="I46" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="D46" t="s">
+        <v>20</v>
+      </c>
+      <c r="J46" t="s">
         <v>214</v>
       </c>
-      <c r="J46" t="s">
+      <c r="K46" t="s">
         <v>21</v>
       </c>
-      <c r="K46">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C47" t="s">
-        <v>20</v>
-      </c>
-      <c r="I47" t="s">
+      <c r="L46">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="D47" t="s">
+        <v>20</v>
+      </c>
+      <c r="J47" t="s">
         <v>217</v>
       </c>
-      <c r="J47" t="s">
+      <c r="K47" t="s">
         <v>21</v>
       </c>
-      <c r="K47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C48" t="s">
-        <v>20</v>
-      </c>
-      <c r="I48" t="s">
+      <c r="L47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="D48" t="s">
+        <v>20</v>
+      </c>
+      <c r="J48" t="s">
         <v>221</v>
       </c>
-      <c r="J48" t="s">
+      <c r="K48" t="s">
         <v>21</v>
       </c>
-      <c r="K48">
+      <c r="L48">
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C49" t="s">
-        <v>20</v>
-      </c>
-      <c r="I49" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="D49" t="s">
+        <v>20</v>
+      </c>
+      <c r="J49" t="s">
         <v>225</v>
       </c>
-      <c r="J49" t="s">
+      <c r="K49" t="s">
         <v>21</v>
       </c>
-      <c r="K49">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C50" t="s">
-        <v>20</v>
-      </c>
-      <c r="I50" t="s">
+      <c r="L49">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="D50" t="s">
+        <v>20</v>
+      </c>
+      <c r="J50" t="s">
         <v>230</v>
       </c>
-      <c r="J50" t="s">
+      <c r="K50" t="s">
         <v>21</v>
       </c>
-      <c r="K50">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C51" t="s">
-        <v>20</v>
-      </c>
-      <c r="I51" t="s">
+      <c r="L50">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="D51" t="s">
+        <v>20</v>
+      </c>
+      <c r="J51" t="s">
         <v>234</v>
       </c>
-      <c r="J51" t="s">
+      <c r="K51" t="s">
         <v>21</v>
       </c>
-      <c r="K51">
+      <c r="L51">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C52" t="s">
-        <v>20</v>
-      </c>
-      <c r="I52" t="s">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="D52" t="s">
+        <v>20</v>
+      </c>
+      <c r="J52" t="s">
         <v>238</v>
       </c>
-      <c r="J52" t="s">
+      <c r="K52" t="s">
         <v>21</v>
       </c>
-      <c r="K52">
+      <c r="L52">
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C53" t="s">
-        <v>20</v>
-      </c>
-      <c r="I53" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="D53" t="s">
+        <v>20</v>
+      </c>
+      <c r="J53" t="s">
         <v>242</v>
       </c>
-      <c r="J53" t="s">
+      <c r="K53" t="s">
         <v>21</v>
       </c>
-      <c r="K53">
+      <c r="L53">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C54" t="s">
-        <v>20</v>
-      </c>
-      <c r="I54" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="D54" t="s">
+        <v>20</v>
+      </c>
+      <c r="J54" t="s">
         <v>247</v>
       </c>
-      <c r="J54" t="s">
+      <c r="K54" t="s">
         <v>21</v>
       </c>
-      <c r="K54">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C55" t="s">
-        <v>20</v>
-      </c>
-      <c r="I55" t="s">
+      <c r="L54">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="D55" t="s">
+        <v>20</v>
+      </c>
+      <c r="J55" t="s">
         <v>251</v>
       </c>
-      <c r="J55" t="s">
+      <c r="K55" t="s">
         <v>21</v>
       </c>
-      <c r="K55">
+      <c r="L55">
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C56" t="s">
-        <v>20</v>
-      </c>
-      <c r="I56" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="D56" t="s">
+        <v>20</v>
+      </c>
+      <c r="J56" t="s">
         <v>254</v>
       </c>
-      <c r="J56" t="s">
+      <c r="K56" t="s">
         <v>21</v>
       </c>
-      <c r="K56">
+      <c r="L56">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C57" t="s">
-        <v>20</v>
-      </c>
-      <c r="I57" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="D57" t="s">
+        <v>20</v>
+      </c>
+      <c r="J57" t="s">
         <v>259</v>
       </c>
-      <c r="J57" t="s">
+      <c r="K57" t="s">
         <v>21</v>
       </c>
-      <c r="K57">
+      <c r="L57">
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C58" t="s">
-        <v>20</v>
-      </c>
-      <c r="I58" t="s">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="D58" t="s">
+        <v>20</v>
+      </c>
+      <c r="J58" t="s">
         <v>264</v>
       </c>
-      <c r="J58" t="s">
+      <c r="K58" t="s">
         <v>21</v>
       </c>
-      <c r="K58">
+      <c r="L58">
         <v>10</v>
       </c>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C59" t="s">
-        <v>20</v>
-      </c>
-      <c r="I59" t="s">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="D59" t="s">
+        <v>20</v>
+      </c>
+      <c r="J59" t="s">
         <v>269</v>
       </c>
-      <c r="J59" t="s">
+      <c r="K59" t="s">
         <v>21</v>
       </c>
-      <c r="K59">
+      <c r="L59">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C60" t="s">
-        <v>20</v>
-      </c>
-      <c r="I60" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="D60" t="s">
+        <v>20</v>
+      </c>
+      <c r="J60" t="s">
         <v>274</v>
       </c>
-      <c r="J60" t="s">
+      <c r="K60" t="s">
         <v>21</v>
       </c>
-      <c r="K60">
+      <c r="L60">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C61" t="s">
-        <v>20</v>
-      </c>
-      <c r="I61" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="D61" t="s">
+        <v>20</v>
+      </c>
+      <c r="J61" t="s">
         <v>279</v>
       </c>
-      <c r="J61" t="s">
+      <c r="K61" t="s">
         <v>21</v>
       </c>
-      <c r="K61">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C62" t="s">
-        <v>20</v>
-      </c>
-      <c r="I62" t="s">
+      <c r="L61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="D62" t="s">
+        <v>20</v>
+      </c>
+      <c r="J62" t="s">
         <v>283</v>
       </c>
-      <c r="J62" t="s">
+      <c r="K62" t="s">
         <v>21</v>
       </c>
-      <c r="K62">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C63" t="s">
-        <v>20</v>
-      </c>
-      <c r="I63" t="s">
+      <c r="L62">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="D63" t="s">
+        <v>20</v>
+      </c>
+      <c r="J63" t="s">
         <v>287</v>
       </c>
-      <c r="J63" t="s">
+      <c r="K63" t="s">
         <v>288</v>
       </c>
-      <c r="K63">
+      <c r="L63">
         <v>15</v>
       </c>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C64" t="s">
-        <v>20</v>
-      </c>
-      <c r="I64" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="D64" t="s">
+        <v>20</v>
+      </c>
+      <c r="J64" t="s">
         <v>293</v>
       </c>
-      <c r="J64" t="s">
+      <c r="K64" t="s">
         <v>21</v>
       </c>
-      <c r="K64">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C65" t="s">
-        <v>20</v>
-      </c>
-      <c r="I65" t="s">
+      <c r="L64">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="D65" t="s">
+        <v>20</v>
+      </c>
+      <c r="J65" t="s">
         <v>297</v>
       </c>
-      <c r="J65" t="s">
+      <c r="K65" t="s">
         <v>21</v>
       </c>
-      <c r="K65">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C66" t="s">
-        <v>20</v>
-      </c>
-      <c r="I66" t="s">
+      <c r="L65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="D66" t="s">
+        <v>20</v>
+      </c>
+      <c r="J66" t="s">
         <v>301</v>
       </c>
-      <c r="J66" t="s">
+      <c r="K66" t="s">
         <v>21</v>
       </c>
-      <c r="K66">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C67" t="s">
-        <v>20</v>
-      </c>
-      <c r="I67" t="s">
+      <c r="L66">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="D67" t="s">
+        <v>20</v>
+      </c>
+      <c r="J67" t="s">
         <v>306</v>
       </c>
-      <c r="J67" t="s">
+      <c r="K67" t="s">
         <v>21</v>
       </c>
-      <c r="K67">
+      <c r="L67">
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C68" t="s">
-        <v>20</v>
-      </c>
-      <c r="I68" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
+        <v>20</v>
+      </c>
+      <c r="J68" t="s">
         <v>310</v>
       </c>
-      <c r="J68" t="s">
+      <c r="K68" t="s">
         <v>21</v>
       </c>
-      <c r="K68">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C69" t="s">
-        <v>20</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="L68">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>20</v>
+      </c>
+      <c r="J69" t="s">
         <v>314</v>
       </c>
-      <c r="J69" t="s">
+      <c r="K69" t="s">
         <v>21</v>
       </c>
-      <c r="K69">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C70" t="s">
-        <v>20</v>
-      </c>
-      <c r="I70" t="s">
+      <c r="L69">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="D70" t="s">
+        <v>20</v>
+      </c>
+      <c r="J70" t="s">
         <v>319</v>
       </c>
-      <c r="J70" t="s">
+      <c r="K70" t="s">
         <v>21</v>
       </c>
-      <c r="K70">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C71" t="s">
-        <v>20</v>
-      </c>
-      <c r="I71" t="s">
+      <c r="L70">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="D71" t="s">
+        <v>20</v>
+      </c>
+      <c r="J71" t="s">
         <v>323</v>
       </c>
-      <c r="J71" t="s">
+      <c r="K71" t="s">
         <v>21</v>
       </c>
-      <c r="K71">
+      <c r="L71">
         <v>25</v>
       </c>
     </row>
-    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C72" t="s">
-        <v>20</v>
-      </c>
-      <c r="I72" t="s">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="D72" t="s">
+        <v>20</v>
+      </c>
+      <c r="J72" t="s">
         <v>326</v>
       </c>
-      <c r="J72" t="s">
+      <c r="K72" t="s">
         <v>21</v>
       </c>
-      <c r="K72">
+      <c r="L72">
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C73" t="s">
-        <v>20</v>
-      </c>
-      <c r="I73" t="s">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="D73" t="s">
+        <v>20</v>
+      </c>
+      <c r="J73" t="s">
         <v>330</v>
       </c>
-      <c r="J73" t="s">
+      <c r="K73" t="s">
         <v>21</v>
       </c>
-      <c r="K73">
+      <c r="L73">
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C74" t="s">
-        <v>20</v>
-      </c>
-      <c r="I74" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="D74" t="s">
+        <v>20</v>
+      </c>
+      <c r="J74" t="s">
         <v>334</v>
       </c>
-      <c r="J74" t="s">
+      <c r="K74" t="s">
         <v>21</v>
       </c>
-      <c r="K74">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="75" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C75" t="s">
-        <v>20</v>
-      </c>
-      <c r="I75" t="s">
+      <c r="L74">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="D75" t="s">
+        <v>20</v>
+      </c>
+      <c r="J75" t="s">
         <v>338</v>
       </c>
-      <c r="J75" t="s">
+      <c r="K75" t="s">
         <v>21</v>
       </c>
-      <c r="K75">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="76" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C76" t="s">
-        <v>20</v>
-      </c>
-      <c r="I76" t="s">
+      <c r="L75">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="D76" t="s">
+        <v>20</v>
+      </c>
+      <c r="J76" t="s">
         <v>343</v>
       </c>
-      <c r="J76" t="s">
+      <c r="K76" t="s">
         <v>21</v>
       </c>
-      <c r="K76">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="77" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C77" t="s">
-        <v>20</v>
-      </c>
-      <c r="I77" t="s">
+      <c r="L76">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="D77" t="s">
+        <v>20</v>
+      </c>
+      <c r="J77" t="s">
         <v>345</v>
       </c>
-      <c r="J77" t="s">
+      <c r="K77" t="s">
         <v>21</v>
       </c>
-      <c r="K77">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="78" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C78" t="s">
-        <v>20</v>
-      </c>
-      <c r="I78" t="s">
+      <c r="L77">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="D78" t="s">
+        <v>20</v>
+      </c>
+      <c r="J78" t="s">
         <v>349</v>
       </c>
-      <c r="J78" t="s">
+      <c r="K78" t="s">
         <v>21</v>
       </c>
-      <c r="K78">
+      <c r="L78">
         <v>25</v>
       </c>
     </row>
-    <row r="79" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C79" t="s">
-        <v>20</v>
-      </c>
-      <c r="I79" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="D79" t="s">
+        <v>20</v>
+      </c>
+      <c r="J79" t="s">
         <v>354</v>
       </c>
-      <c r="J79" t="s">
+      <c r="K79" t="s">
         <v>21</v>
       </c>
-      <c r="K79">
+      <c r="L79">
         <v>60</v>
       </c>
     </row>
-    <row r="80" spans="3:11" x14ac:dyDescent="0.25">
-      <c r="C80" t="s">
-        <v>20</v>
-      </c>
-      <c r="I80" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="D80" t="s">
+        <v>20</v>
+      </c>
+      <c r="J80" t="s">
         <v>358</v>
       </c>
-      <c r="J80" t="s">
+      <c r="K80" t="s">
         <v>21</v>
       </c>
-      <c r="K80">
+      <c r="L80">
         <v>30</v>
       </c>
     </row>
